--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value817.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value817.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>2.301913539206121</v>
+        <v>1.482396960258484</v>
       </c>
       <c r="B1">
-        <v>3.10787017265277</v>
+        <v>3.604615211486816</v>
       </c>
       <c r="C1">
-        <v>1.95783995036986</v>
+        <v>2.965796232223511</v>
       </c>
       <c r="D1">
-        <v>1.660095807170541</v>
+        <v>1.383156180381775</v>
       </c>
       <c r="E1">
-        <v>1.59843328639324</v>
+        <v>0.7736344337463379</v>
       </c>
     </row>
   </sheetData>
